--- a/xlsx/国家地理 (杂志)_intext.xlsx
+++ b/xlsx/国家地理 (杂志)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>国家地理 (杂志)</t>
   </si>
@@ -29,19 +29,19 @@
     <t>地理</t>
   </si>
   <si>
-    <t>政策_政策_美國_国家地理 (杂志)</t>
+    <t>政策_政策_美国_国家地理 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>國家地理學會</t>
+    <t>国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISSN</t>
@@ -95,15 +95,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%A6%E4%BC%9A</t>
   </si>
   <si>
-    <t>国家地理学会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E6%A1%82</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
   </si>
   <si>
-    <t>历史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -137,13 +128,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E5%BD%B1</t>
   </si>
   <si>
-    <t>攝影</t>
+    <t>摄影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E7%A0%8D%E4%BC%90</t>
@@ -167,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%9E</t>
@@ -185,7 +176,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>農產品</t>
+    <t>农产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -197,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -215,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>美蘇冷戰</t>
+    <t>美苏冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -251,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
@@ -275,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>國家地理雜誌</t>
+    <t>国家地理杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%BA%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>美麗島</t>
+    <t>美丽岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99</t>
   </si>
   <si>
-    <t>福爾摩沙</t>
+    <t>福尔摩沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -311,9 +302,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%BD%B1</t>
   </si>
   <si>
-    <t>摄影</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E7%85%A7%E7%89%87</t>
   </si>
   <si>
@@ -431,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E7%90%86%E6%9F%A5%E6%A3%AE</t>
@@ -503,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%90%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>女子學校</t>
+    <t>女子学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E5%B0%94</t>
@@ -533,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約人</t>
+    <t>纽约人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E8%8A%B1%E5%85%AC%E5%AD%90</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AF%AD</t>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
@@ -719,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>泰語</t>
+    <t>泰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國家地理頻道</t>
+    <t>国家地理频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9C%B0%E7%90%86</t>
@@ -1534,7 +1522,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -1560,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1589,10 +1577,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1618,10 +1606,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1647,10 +1635,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1676,10 +1664,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1705,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1734,10 +1722,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1763,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1792,10 +1780,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1821,10 +1809,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1850,10 +1838,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1879,10 +1867,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1908,10 +1896,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1937,10 +1925,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1966,10 +1954,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1995,10 +1983,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>58</v>
@@ -2024,10 +2012,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2053,10 +2041,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2082,10 +2070,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2111,10 +2099,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2140,10 +2128,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2169,10 +2157,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2198,10 +2186,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2227,10 +2215,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2256,10 +2244,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2285,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2314,10 +2302,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2343,10 +2331,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2372,10 +2360,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2401,10 +2389,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>6</v>
@@ -2430,10 +2418,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2459,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2488,10 +2476,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2517,10 +2505,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2546,10 +2534,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>23</v>
@@ -2575,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -2604,10 +2592,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2633,10 +2621,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2662,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2691,10 +2679,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2720,10 +2708,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2749,10 +2737,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2778,10 +2766,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2807,10 +2795,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2836,10 +2824,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2865,10 +2853,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2894,10 +2882,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2923,10 +2911,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -2952,10 +2940,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2981,10 +2969,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3010,10 +2998,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3039,10 +3027,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3068,10 +3056,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3097,10 +3085,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3126,10 +3114,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3155,10 +3143,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3184,10 +3172,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3213,10 +3201,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3242,10 +3230,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3271,10 +3259,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3300,10 +3288,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>9</v>
@@ -3329,10 +3317,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3358,10 +3346,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3387,10 +3375,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3416,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3445,10 +3433,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3474,10 +3462,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -3503,10 +3491,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3532,10 +3520,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3561,10 +3549,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3590,10 +3578,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3619,10 +3607,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3648,10 +3636,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3677,10 +3665,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3706,10 +3694,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3735,10 +3723,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3764,10 +3752,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3793,10 +3781,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3822,10 +3810,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3851,10 +3839,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3880,10 +3868,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3909,10 +3897,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3938,10 +3926,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3967,10 +3955,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3996,10 +3984,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4025,10 +4013,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4054,10 +4042,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4083,10 +4071,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4112,10 +4100,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4141,10 +4129,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4170,10 +4158,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4199,10 +4187,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4228,10 +4216,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4257,10 +4245,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4286,10 +4274,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4315,10 +4303,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4344,10 +4332,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4373,10 +4361,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4402,10 +4390,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4431,10 +4419,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4460,10 +4448,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4489,10 +4477,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4518,10 +4506,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4547,10 +4535,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4576,10 +4564,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4605,10 +4593,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4634,10 +4622,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4663,10 +4651,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4692,10 +4680,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4721,10 +4709,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4750,10 +4738,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4779,10 +4767,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4808,10 +4796,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4837,10 +4825,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -4866,10 +4854,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -4895,10 +4883,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -4924,10 +4912,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4953,10 +4941,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4982,10 +4970,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5011,10 +4999,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
